--- a/excel/Condizionale - Presente.xlsx
+++ b/excel/Condizionale - Presente.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-Coding\spingMvc\quiz-mini-springboot\quiz-mini-springboot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="184">
   <si>
     <t>类别名称</t>
   </si>
@@ -266,19 +271,445 @@
   </si>
   <si>
     <t>chiederebbero</t>
+  </si>
+  <si>
+    <t>mettere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metterei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metteresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metterebbe</t>
+  </si>
+  <si>
+    <t>metteremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mettereste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metterebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mi me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tterebbe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in un posto di responsabilità.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arlare</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlerei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parleresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlerebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parleremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlereste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlerebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mi parlerei per telefono oggi.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finirei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finiresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finirebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finiremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finireste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>finirebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>venire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verrei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verrebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verreste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verrebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
+  </si>
+  <si>
+    <t>partire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starei</t>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenere</t>
+  </si>
+  <si>
+    <t>sapere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>darei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>darebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dareste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>darebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormirei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormiresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormirebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormiremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormireste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormirebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggerei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggeresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggerebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggeremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggereste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggerebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partirei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partiresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partirebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partiremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partireste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>partirebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correrei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correrebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correreste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correrebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direbbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>direbbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>staremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stareste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenderei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenderesti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenderebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenderemmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendereste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenderebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terreste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saprei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapresti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saprebbe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapremmo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapreste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saprebbero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -293,158 +724,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,194 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -667,317 +775,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1235,28 +1060,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="53.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1438,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1647,7 +1472,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +1710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +1761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +1795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +1812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +1829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +1846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +1863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +1880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +1897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +1914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +1931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +1948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +1965,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +1982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +1999,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2016,1221 @@
         <v>78</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>